--- a/biology/Zoologie/Brissopsis/Brissopsis.xlsx
+++ b/biology/Zoologie/Brissopsis/Brissopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brissopsis est un genre d'oursins irréguliers de l'ordre des Spatangoida et de la famille des Brissidae.
 L'espèce type est Brissopsis elegans L.Agassiz, 1847. Il y a aussi dix espèces fossiles.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins irréguliers dont la bouche et l'anus se sont déplacés de leurs pôles pour former un « avant » et un « arrière ». La bouche se situe donc dans le premier quart de la face orale, et l'anus se trouve à l'opposé, tourné vers l'arrière. La coquille (appelée « test ») s'est également allongée dans ce sens antéro-postérieur.
 Le test est ovale avec un sulcus antérieur peu profond.
@@ -524,8 +538,8 @@
 La plaque labrale est en forme de champignon, courte et large, largement en contact avec les plaques sternales. Elle ne s'étend pas au-delà de la première plaque ambulacraire dans l'espèce-type.
 Les tubercules et radioles aborales sont assez homogènes, sans gros tubercules primaires différenciés.
 Le plastron est triangulaire, modérément développé. Les plaques épisternales s'effilent postérieurement.
-Les fascioles subanal et autour des pétales est bien développés, et colorés chez les individus vivants ; une caractéristique déterminante de ce genre est le fasciole subanal bilobé (alors qu'il est en forme de bouclier chez Metalia et Plagiobrissus)[2].
-Ce genre semble être apparu à l'Éocène, et demeure répandu dans l'Indo-Pacifique, en Atlantique et Méditerranée[2].
+Les fascioles subanal et autour des pétales est bien développés, et colorés chez les individus vivants ; une caractéristique déterminante de ce genre est le fasciole subanal bilobé (alors qu'il est en forme de bouclier chez Metalia et Plagiobrissus).
+Ce genre semble être apparu à l'Éocène, et demeure répandu dans l'Indo-Pacifique, en Atlantique et Méditerranée.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (21 février 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (21 février 2014) :
 Brissopsis alta Mortensen, 1907 -- Golfe du Mexique
 Brissopsis atlantica Mortensen, 1907 -- Atlantique tropical et Caraïbes
 Brissopsis bengalensis Koehler, 1914 -- Golfe du Bengale
@@ -580,9 +596,43 @@
 Brissopsis fermori Vredenburg, 1922 †
 Brissopsis japonica Nisiyama, 1968 †
 Brissopsis makiyamai Morishita, 1957 †
-Brissopsis steinhatchee Cooke, 1942 †
-Paléontologie : espèces fossiles
-Selon Paleobiology Database, les dix espèces suivantes sont présentes dans le registre fossile[4] :
+Brissopsis steinhatchee Cooke, 1942 †</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brissopsis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brissopsis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Paléontologie : espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database, les dix espèces suivantes sont présentes dans le registre fossile :
 †Brissopsis aguayoi Sanchez Roig 1952,
 †Brissopsis atlantica Moretensen 1907,
 †Brissopsis balnpiedi Grant and Hertlein 1938,
@@ -592,10 +642,44 @@
 †Brissopsis luzonica Gray 1851,
 †Brissopsis pacifica Agassiz 1898,
 †Brissopsis praeluzonica Fell 1964,
-†Brissopsis steinhatchee Cooke 1942[4].
-sp. : Espèce non découverte mais décrite au MNHN
-Le MNHN a 19 spécimens classés dans l'espèce Brissopsis sp., non découverte et non attribuée donc.
-Le genre  Brissopsis[5] n'a jamais été retrouvé in situ dans les faluns bretons[6],[7],[8].
+†Brissopsis steinhatchee Cooke 1942.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brissopsis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brissopsis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>sp. : Espèce non découverte mais décrite au MNHN</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le MNHN a 19 spécimens classés dans l'espèce Brissopsis sp., non découverte et non attribuée donc.
+Le genre  Brissopsis n'a jamais été retrouvé in situ dans les faluns bretons.
 </t>
         </is>
       </c>
